--- a/long_first/synthetic_dataset_14.xlsx
+++ b/long_first/synthetic_dataset_14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Value</t>
   </si>
   <si>
+    <t>TV</t>
+  </si>
+  <si>
     <t>Radio</t>
-  </si>
-  <si>
-    <t>TV</t>
   </si>
   <si>
     <t>GRPs</t>
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45920</v>
+        <v>45917</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -430,32 +430,35 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45920</v>
+        <v>45917</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
       <c r="D3">
-        <v>172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45913</v>
+        <v>45910</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -463,48 +466,57 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45899</v>
+        <v>45910</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45913</v>
+        <v>45910</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45955</v>
+        <v>45917</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
       <c r="D8">
-        <v>3</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45934</v>
+        <v>45910</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -513,396 +525,121 @@
         <v>6</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
       <c r="D10">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>45899</v>
-      </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
       <c r="D11">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>45903</v>
+      </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45906</v>
+        <v>45896</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45913</v>
+        <v>45903</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45941</v>
+        <v>45917</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
       <c r="D15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45948</v>
+        <v>45910</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45906</v>
+        <v>45903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>188</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2">
-        <v>45920</v>
-      </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
-        <v>45934</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
-        <v>45892</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
-        <v>45948</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
-        <v>45899</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
-        <v>45906</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
         <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
-        <v>45927</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
-        <v>45892</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
-        <v>45941</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
-        <v>45955</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
-        <v>45892</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
-        <v>45948</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
-        <v>45927</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
-        <v>45948</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
-        <v>45906</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
-        <v>45927</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
-        <v>45920</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
-        <v>45927</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
-        <v>45899</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
-        <v>45913</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
-        <v>45941</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
-        <v>45955</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
